--- a/biology/Zoologie/Isurus_planus/Isurus_planus.xlsx
+++ b/biology/Zoologie/Isurus_planus/Isurus_planus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Requin Mako à dents de crochet
 Le requin mako à dents de crochet (Isurus planus) est une espèce éteinte de requins lamniformes appartenant au genre Isurus. Il a vécu au Miocène, en Californie, il y a entre 23 et 5 millions d'années.
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce n'est qu'en 1856[1] que Louis Agassiz le décrit, 13 ans après avoir décrit un grand nombre de requins fossiles (Hemipristis serra, le genre Otodus, Ptychodus mortoni et Carcharodon megalodon) dont un cousin du même genre, Isurus hastalis.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce n'est qu'en 1856 que Louis Agassiz le décrit, 13 ans après avoir décrit un grand nombre de requins fossiles (Hemipristis serra, le genre Otodus, Ptychodus mortoni et Carcharodon megalodon) dont un cousin du même genre, Isurus hastalis.
 </t>
         </is>
       </c>
